--- a/sdi-entrega1-1105.xlsx
+++ b/sdi-entrega1-1105.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dio Brando\Documents\GitHub\sdi-entrega1-1105\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90894145-21B0-4B03-9A94-9CFE793FF2C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D89A88-D58D-4189-90AC-4D1F37A1EC6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,7 +898,7 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
     <row r="4" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="40">
         <f>G31</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -980,7 +980,7 @@
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="23">
         <f>A4-A6</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="D13" s="1">
         <f>COUNTIFS($B$49:$B$96,$A13,$D$49:$D$96,"=OK")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
         <f>COUNTIFS($B$49:$B$96,$A13,$D$49:$D$96,"FAIL")</f>
@@ -1046,11 +1046,11 @@
       </c>
       <c r="F13" s="1">
         <f>COUNTIFS($B$49:$B$96,$A13,$D$49:$D$96,"=SIN")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <f>MIN(C13,(D13/B13)*C13)</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G31" s="12">
         <f>SUM(G13:G30)</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>14</v>
@@ -1783,7 +1783,7 @@
         <v>25</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
@@ -1800,7 +1800,7 @@
         <v>25</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>

--- a/sdi-entrega1-1105.xlsx
+++ b/sdi-entrega1-1105.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dio Brando\Documents\GitHub\sdi-entrega1-1105\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D89A88-D58D-4189-90AC-4D1F37A1EC6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18EB0FC-8389-4065-9478-C6C83A98CED7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,7 +898,7 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
     <row r="4" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="40">
         <f>G31</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -980,7 +980,7 @@
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="23">
         <f>A4-A6</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" ref="D14:D30" si="1">COUNTIFS($B$49:$B$96,$A14,$D$49:$D$96,"=OK")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ref="E14:E30" si="2">COUNTIFS($B$49:$B$96,$A14,$D$49:$D$96,"FAIL")</f>
@@ -1074,11 +1074,11 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" ref="F14:F30" si="3">COUNTIFS($B$49:$B$96,$A14,$D$49:$D$96,"=SIN")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ref="G14:G30" si="4">MIN(C14,(D14/B14)*C14)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G31" s="12">
         <f>SUM(G13:G30)</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>14</v>
@@ -1817,7 +1817,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="20"/>

--- a/sdi-entrega1-1105.xlsx
+++ b/sdi-entrega1-1105.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dio Brando\Documents\GitHub\sdi-entrega1-1105\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18EB0FC-8389-4065-9478-C6C83A98CED7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA07098-203D-40E4-AC5B-693D00E83F5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,7 +898,7 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
     <row r="4" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="40">
         <f>G31</f>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -980,7 +980,7 @@
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="23">
         <f>A4-A6</f>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" ref="D14:D30" si="1">COUNTIFS($B$49:$B$96,$A14,$D$49:$D$96,"=OK")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ref="E14:E30" si="2">COUNTIFS($B$49:$B$96,$A14,$D$49:$D$96,"FAIL")</f>
@@ -1074,11 +1074,11 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" ref="F14:F30" si="3">COUNTIFS($B$49:$B$96,$A14,$D$49:$D$96,"=SIN")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ref="G14:G30" si="4">MIN(C14,(D14/B14)*C14)</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G31" s="12">
         <f>SUM(G13:G30)</f>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>14</v>
@@ -1834,7 +1834,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="20"/>

--- a/sdi-entrega1-1105.xlsx
+++ b/sdi-entrega1-1105.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dio Brando\Documents\GitHub\sdi-entrega1-1105\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA07098-203D-40E4-AC5B-693D00E83F5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98F1A5A-5651-4348-BDB4-25AF7C053C75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,7 +898,7 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
     <row r="4" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="40">
         <f>G31</f>
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -980,7 +980,7 @@
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="23">
         <f>A4-A6</f>
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" ref="D14:D30" si="1">COUNTIFS($B$49:$B$96,$A14,$D$49:$D$96,"=OK")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ref="E14:E30" si="2">COUNTIFS($B$49:$B$96,$A14,$D$49:$D$96,"FAIL")</f>
@@ -1074,11 +1074,11 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" ref="F14:F30" si="3">COUNTIFS($B$49:$B$96,$A14,$D$49:$D$96,"=SIN")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ref="G14:G30" si="4">MIN(C14,(D14/B14)*C14)</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G31" s="12">
         <f>SUM(G13:G30)</f>
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>14</v>
@@ -1851,7 +1851,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="20"/>

--- a/sdi-entrega1-1105.xlsx
+++ b/sdi-entrega1-1105.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dio Brando\Documents\GitHub\sdi-entrega1-1105\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98F1A5A-5651-4348-BDB4-25AF7C053C75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4D0746-F337-44DB-9196-02022F157C4F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
     <row r="4" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="40">
         <f>G31</f>
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -980,7 +980,7 @@
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="23">
         <f>A4-A6</f>
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" ref="D14:D30" si="1">COUNTIFS($B$49:$B$96,$A14,$D$49:$D$96,"=OK")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ref="E14:E30" si="2">COUNTIFS($B$49:$B$96,$A14,$D$49:$D$96,"FAIL")</f>
@@ -1074,11 +1074,11 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" ref="F14:F30" si="3">COUNTIFS($B$49:$B$96,$A14,$D$49:$D$96,"=SIN")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ref="G14:G30" si="4">MIN(C14,(D14/B14)*C14)</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="2"/>
@@ -1130,11 +1130,11 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="2"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="2"/>
@@ -1186,11 +1186,11 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="2"/>
@@ -1214,11 +1214,11 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1238,11 +1238,11 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="4"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G31" s="12">
         <f>SUM(G13:G30)</f>
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>14</v>
@@ -1868,7 +1868,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="20"/>
@@ -1885,7 +1885,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="20"/>
@@ -1902,7 +1902,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="20"/>
@@ -1919,7 +1919,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="20"/>
@@ -1936,7 +1936,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" s="20"/>
@@ -1953,7 +1953,7 @@
         <v>25</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E61" s="19"/>
       <c r="F61" s="20"/>
@@ -1970,7 +1970,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E62" s="19"/>
       <c r="F62" s="20"/>
@@ -1987,7 +1987,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
@@ -2004,7 +2004,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="20"/>
@@ -2021,7 +2021,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="20"/>
@@ -2038,7 +2038,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="20"/>
@@ -2055,7 +2055,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="20"/>

--- a/sdi-entrega1-1105.xlsx
+++ b/sdi-entrega1-1105.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dio Brando\Documents\GitHub\sdi-entrega1-1105\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4D0746-F337-44DB-9196-02022F157C4F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADFBC41-E99B-4C68-A440-907D80118D04}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
     <row r="4" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="40">
         <f>G31</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -980,7 +980,7 @@
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="23">
         <f>A4-A6</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1234,19 +1234,19 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="2"/>
@@ -1270,11 +1270,11 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G31" s="12">
         <f>SUM(G13:G30)</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>14</v>
@@ -2055,7 +2055,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="20"/>
@@ -2072,7 +2072,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="20"/>
@@ -2089,7 +2089,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="20"/>
@@ -2106,7 +2106,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="20"/>

--- a/sdi-entrega1-1105.xlsx
+++ b/sdi-entrega1-1105.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dio Brando\Documents\GitHub\sdi-entrega1-1105\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADFBC41-E99B-4C68-A440-907D80118D04}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681CCF6-3E4B-4837-882E-1B65B58A93CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
     <row r="4" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="40">
         <f>G31</f>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -980,7 +980,7 @@
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="23">
         <f>A4-A6</f>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="2"/>
@@ -1298,11 +1298,11 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="2"/>
@@ -1326,11 +1326,11 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="2"/>
@@ -1354,11 +1354,11 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="2"/>
@@ -1382,11 +1382,11 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G31" s="12">
         <f>SUM(G13:G30)</f>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>14</v>
@@ -2123,7 +2123,7 @@
         <v>25</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="20"/>
@@ -2140,7 +2140,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="20"/>
@@ -2157,7 +2157,7 @@
         <v>25</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E73" s="19"/>
       <c r="F73" s="20"/>
@@ -2174,7 +2174,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="20"/>
@@ -2191,7 +2191,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="20"/>
@@ -2208,7 +2208,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="20"/>
@@ -2225,7 +2225,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="20"/>
@@ -2242,7 +2242,7 @@
         <v>25</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E78" s="19"/>
       <c r="F78" s="20"/>
